--- a/Jon_Updates/population_data_tracker.xlsx
+++ b/Jon_Updates/population_data_tracker.xlsx
@@ -57,28 +57,28 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="3.15625" customWidth="true"/>
     <col min="6" max="6" width="14.7109375" customWidth="true"/>
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="13.7109375" customWidth="true"/>
-    <col min="9" max="9" width="14.37890625" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B1" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C1" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D1" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E1" s="0">
         <v>1</v>
@@ -87,27 +87,27 @@
         <v>0</v>
       </c>
       <c r="G1" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H1" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I1" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B2" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C2" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D2" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
@@ -116,27 +116,27 @@
         <v>0</v>
       </c>
       <c r="G2" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H2" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I2" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="B3" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C3" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="D3" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E3" s="0">
         <v>1</v>
@@ -145,27 +145,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="H3" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I3" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B4" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C4" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D4" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E4" s="0">
         <v>1</v>
@@ -174,27 +174,27 @@
         <v>0</v>
       </c>
       <c r="G4" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="H4" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I4" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B5" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C5" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D5" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E5" s="0">
         <v>1</v>
@@ -203,27 +203,27 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H5" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I5" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B6" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C6" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D6" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E6" s="0">
         <v>1</v>
@@ -232,27 +232,27 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H6" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I6" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B7" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C7" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D7" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E7" s="0">
         <v>1</v>
@@ -261,27 +261,27 @@
         <v>0</v>
       </c>
       <c r="G7" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H7" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I7" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.55284456352177835</v>
       </c>
       <c r="B8" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="C8" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.55284456352177835</v>
       </c>
       <c r="D8" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="E8" s="0">
         <v>1</v>
@@ -290,27 +290,27 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.55284456352177835</v>
       </c>
       <c r="H8" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="I8" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B9" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C9" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D9" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E9" s="0">
         <v>1</v>
@@ -319,27 +319,27 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H9" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I9" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B10" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C10" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D10" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E10" s="0">
         <v>1</v>
@@ -348,27 +348,27 @@
         <v>0</v>
       </c>
       <c r="G10" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H10" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I10" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B11" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C11" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D11" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E11" s="0">
         <v>1</v>
@@ -377,27 +377,27 @@
         <v>0</v>
       </c>
       <c r="G11" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H11" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I11" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B12" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C12" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D12" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E12" s="0">
         <v>1</v>
@@ -406,27 +406,27 @@
         <v>0</v>
       </c>
       <c r="G12" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="H12" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I12" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B13" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C13" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D13" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E13" s="0">
         <v>1</v>
@@ -435,27 +435,27 @@
         <v>0</v>
       </c>
       <c r="G13" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H13" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I13" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B14" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C14" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D14" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E14" s="0">
         <v>1</v>
@@ -464,56 +464,56 @@
         <v>0</v>
       </c>
       <c r="G14" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H14" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I14" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B15" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C15" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D15" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E15" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="0">
         <v>0</v>
       </c>
       <c r="G15" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H15" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I15" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-0.11186305732484077</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B16" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C16" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D16" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E16" s="0">
         <v>1</v>
@@ -522,56 +522,56 @@
         <v>0</v>
       </c>
       <c r="G16" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H16" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I16" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B17" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C17" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D17" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E17" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" s="0">
-        <v>0</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G17" s="0">
-        <v>0.16293912334817248</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H17" s="0">
-        <v>0.95418253913787976</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I17" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B18" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C18" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D18" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E18" s="0">
         <v>1</v>
@@ -580,27 +580,27 @@
         <v>0</v>
       </c>
       <c r="G18" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H18" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I18" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B19" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C19" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D19" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E19" s="0">
         <v>1</v>
@@ -609,201 +609,201 @@
         <v>0</v>
       </c>
       <c r="G19" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H19" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I19" s="0">
-        <v>-1.6746550961666984</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B20" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C20" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D20" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E20" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="0">
         <v>0</v>
       </c>
       <c r="G20" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H20" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I20" s="0">
-        <v>-1.6746557480933026</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B21" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C21" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D21" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E21" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" s="0">
         <v>0</v>
       </c>
       <c r="G21" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H21" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I21" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B22" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C22" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D22" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E22" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="0">
         <v>0</v>
       </c>
       <c r="G22" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H22" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I22" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B23" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C23" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D23" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E23" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F23" s="0">
         <v>0</v>
       </c>
       <c r="G23" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H23" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I23" s="0">
-        <v>0.012384551812550125</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="B24" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C24" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="D24" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E24" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F24" s="0">
-        <v>0</v>
+        <v>0.25043825968007499</v>
       </c>
       <c r="G24" s="0">
-        <v>0.16293912334817248</v>
+        <v>25044.302485146647</v>
       </c>
       <c r="H24" s="0">
-        <v>0.95418253913787976</v>
+        <v>25044.487656554116</v>
       </c>
       <c r="I24" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.10580244655200492</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B25" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C25" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D25" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E25" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" s="0">
         <v>0</v>
       </c>
       <c r="G25" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H25" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I25" s="0">
-        <v>-1.6746557480933026</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B26" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C26" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D26" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E26" s="0">
         <v>1</v>
@@ -812,27 +812,27 @@
         <v>0</v>
       </c>
       <c r="G26" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H26" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I26" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B27" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C27" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D27" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E27" s="0">
         <v>1</v>
@@ -841,27 +841,27 @@
         <v>0</v>
       </c>
       <c r="G27" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="H27" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I27" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B28" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C28" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D28" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E28" s="0">
         <v>5</v>
@@ -870,85 +870,85 @@
         <v>0</v>
       </c>
       <c r="G28" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H28" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I28" s="0">
-        <v>0.012384551812550125</v>
+        <v>0.039258717248118122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B29" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C29" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D29" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E29" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F29" s="0">
-        <v>0.29522614080496479</v>
+        <v>0</v>
       </c>
       <c r="G29" s="0">
-        <v>29523.459339494151</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H29" s="0">
-        <v>29522.689133564705</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I29" s="0">
-        <v>0.038446555738033253</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="B30" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C30" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="D30" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E30" s="0">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F30" s="0">
-        <v>0</v>
+        <v>0.76764156184771759</v>
       </c>
       <c r="G30" s="0">
-        <v>1.0176404480475485</v>
+        <v>76764.632701910901</v>
       </c>
       <c r="H30" s="0">
-        <v>0.075053068225979402</v>
+        <v>76764.306400121262</v>
       </c>
       <c r="I30" s="0">
-        <v>-1.6746557480933026</v>
+        <v>0.088816961840330444</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B31" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C31" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D31" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E31" s="0">
         <v>1</v>
@@ -957,27 +957,27 @@
         <v>0</v>
       </c>
       <c r="G31" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="H31" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I31" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B32" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C32" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D32" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E32" s="0">
         <v>1</v>
@@ -986,114 +986,114 @@
         <v>0</v>
       </c>
       <c r="G32" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H32" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I32" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B33" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C33" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D33" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E33" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="0">
         <v>0</v>
       </c>
       <c r="G33" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H33" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I33" s="0">
-        <v>-0.054794328518085043</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B34" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C34" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D34" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E34" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F34" s="0">
-        <v>1.0364573715034109</v>
+        <v>0</v>
       </c>
       <c r="G34" s="0">
-        <v>103645.90008946443</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H34" s="0">
-        <v>103645.90833397835</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I34" s="0">
-        <v>0.064102326281556085</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B35" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C35" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D35" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E35" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="0">
-        <v>0.084821146945449039</v>
+        <v>0.17234123110066527</v>
       </c>
       <c r="G35" s="0">
-        <v>8483.0855446757178</v>
+        <v>17234.965810636259</v>
       </c>
       <c r="H35" s="0">
-        <v>8482.1897476131289</v>
+        <v>17234.273325416041</v>
       </c>
       <c r="I35" s="0">
-        <v>0.038057004926897765</v>
+        <v>0.067407339656014767</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B36" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C36" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D36" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E36" s="0">
         <v>1</v>
@@ -1102,27 +1102,27 @@
         <v>0</v>
       </c>
       <c r="G36" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H36" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I36" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B37" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C37" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D37" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E37" s="0">
         <v>1</v>
@@ -1131,85 +1131,85 @@
         <v>0</v>
       </c>
       <c r="G37" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="H37" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I37" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B38" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C38" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D38" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E38" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="0">
         <v>0</v>
       </c>
       <c r="G38" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H38" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I38" s="0">
-        <v>-0.054794328518085043</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B39" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C39" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D39" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E39" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F39" s="0">
         <v>0</v>
       </c>
       <c r="G39" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H39" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I39" s="0">
-        <v>0.012384551812550125</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B40" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C40" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D40" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E40" s="0">
         <v>1</v>
@@ -1218,143 +1218,143 @@
         <v>0</v>
       </c>
       <c r="G40" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H40" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I40" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B41" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C41" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D41" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E41" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41" s="0">
         <v>0</v>
       </c>
       <c r="G41" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H41" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I41" s="0">
-        <v>0.012384551812550125</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B42" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C42" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D42" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E42" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F42" s="0">
-        <v>0.0085769465227728547</v>
+        <v>0</v>
       </c>
       <c r="G42" s="0">
-        <v>858.74446603453885</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H42" s="0">
-        <v>858.64883481642335</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I42" s="0">
-        <v>0.054456039415182143</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B43" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C43" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D43" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E43" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F43" s="0">
-        <v>0</v>
+        <v>0.17234123110066527</v>
       </c>
       <c r="G43" s="0">
-        <v>1.0176404480475485</v>
+        <v>17234.965810636259</v>
       </c>
       <c r="H43" s="0">
-        <v>0.54669399795092843</v>
+        <v>17234.273325416041</v>
       </c>
       <c r="I43" s="0">
-        <v>0.019520616744835313</v>
+        <v>0.067407339656014767</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B44" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C44" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D44" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E44" s="0">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F44" s="0">
-        <v>1.0364573715034109</v>
+        <v>0</v>
       </c>
       <c r="G44" s="0">
-        <v>103645.90008946443</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="H44" s="0">
-        <v>103645.90833397835</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I44" s="0">
-        <v>0.064102326281556085</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B45" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C45" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D45" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E45" s="0">
         <v>1</v>
@@ -1363,143 +1363,143 @@
         <v>0</v>
       </c>
       <c r="G45" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H45" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I45" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>1.0126641792728071</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B46" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C46" s="0">
-        <v>1.0126641792728071</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D46" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E46" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F46" s="0">
-        <v>0.0066314342441169891</v>
+        <v>0</v>
       </c>
       <c r="G46" s="0">
-        <v>664.15608859097176</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H46" s="0">
-        <v>663.2184774799249</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I46" s="0">
-        <v>0.13119227590627505</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B47" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C47" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D47" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E47" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F47" s="0">
         <v>0</v>
       </c>
       <c r="G47" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H47" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I47" s="0">
-        <v>-1.6746557480933026</v>
+        <v>0.039258717248118122</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B48" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C48" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D48" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E48" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" s="0">
         <v>0</v>
       </c>
       <c r="G48" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H48" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I48" s="0">
-        <v>-1.6746557480933026</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.55284456352177835</v>
       </c>
       <c r="B49" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C49" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.55284456352177835</v>
       </c>
       <c r="D49" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E49" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F49" s="0">
-        <v>0</v>
+        <v>0.270557672848246</v>
       </c>
       <c r="G49" s="0">
-        <v>0.97085013081456095</v>
+        <v>27056.320129388121</v>
       </c>
       <c r="H49" s="0">
-        <v>0.95418253913787976</v>
+        <v>27056.428973371218</v>
       </c>
       <c r="I49" s="0">
-        <v>0.022460084707288996</v>
+        <v>0.35580244655200494</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B50" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C50" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D50" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E50" s="0">
         <v>1</v>
@@ -1508,143 +1508,143 @@
         <v>0</v>
       </c>
       <c r="G50" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H50" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I50" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B51" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C51" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D51" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E51" s="0">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F51" s="0">
-        <v>0.15638746833814857</v>
+        <v>0</v>
       </c>
       <c r="G51" s="0">
-        <v>15639.592092812529</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H51" s="0">
-        <v>15638.91801745213</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I51" s="0">
-        <v>0.096019001642299262</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="B52" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C52" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="D52" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E52" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F52" s="0">
         <v>0</v>
       </c>
       <c r="G52" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="H52" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I52" s="0">
-        <v>0.012384551812550125</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B53" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="C53" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D53" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="E53" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F53" s="0">
         <v>0</v>
       </c>
       <c r="G53" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H53" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="I53" s="0">
-        <v>-1.6746557480933026</v>
+        <v>0.064069737984944988</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B54" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C54" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D54" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E54" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F54" s="0">
-        <v>1.0364573715034109</v>
+        <v>0</v>
       </c>
       <c r="G54" s="0">
-        <v>103645.90008946443</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H54" s="0">
-        <v>103645.90833397835</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I54" s="0">
-        <v>0.064102326281556085</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B55" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C55" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D55" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E55" s="0">
         <v>1</v>
@@ -1653,27 +1653,27 @@
         <v>0</v>
       </c>
       <c r="G55" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H55" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I55" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B56" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C56" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D56" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E56" s="0">
         <v>1</v>
@@ -1682,85 +1682,85 @@
         <v>0</v>
       </c>
       <c r="G56" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H56" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I56" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B57" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C57" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D57" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E57" s="0">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F57" s="0">
-        <v>0.29522614080496479</v>
+        <v>0</v>
       </c>
       <c r="G57" s="0">
-        <v>29523.459339494151</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H57" s="0">
-        <v>29522.689133564705</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I57" s="0">
-        <v>0.038446555738033253</v>
+        <v>-0.11186305732484077</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B58" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C58" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D58" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E58" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="0">
         <v>0</v>
       </c>
       <c r="G58" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H58" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I58" s="0">
-        <v>-0.054794348830508037</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B59" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C59" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D59" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E59" s="0">
         <v>3</v>
@@ -1769,27 +1769,27 @@
         <v>0</v>
       </c>
       <c r="G59" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H59" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I59" s="0">
-        <v>0.019520636957074473</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B60" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C60" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D60" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E60" s="0">
         <v>1</v>
@@ -1798,85 +1798,85 @@
         <v>0</v>
       </c>
       <c r="G60" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H60" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I60" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B61" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C61" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D61" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E61" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="0">
         <v>0</v>
       </c>
       <c r="G61" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H61" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I61" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-0.11186305732484077</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.78930217282870452</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B62" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C62" s="0">
-        <v>0.78930217282870452</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D62" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E62" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F62" s="0">
-        <v>0</v>
+        <v>0.17234123110066527</v>
       </c>
       <c r="G62" s="0">
-        <v>0.78930217282870452</v>
+        <v>17234.965810636259</v>
       </c>
       <c r="H62" s="0">
-        <v>0.95418253913787976</v>
+        <v>17234.273325416041</v>
       </c>
       <c r="I62" s="0">
-        <v>-0.054794798616916281</v>
+        <v>0.067407339656014767</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B63" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C63" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D63" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E63" s="0">
         <v>1</v>
@@ -1885,56 +1885,56 @@
         <v>0</v>
       </c>
       <c r="G63" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H63" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I63" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B64" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C64" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D64" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E64" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" s="0">
         <v>0</v>
       </c>
       <c r="G64" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H64" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I64" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B65" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C65" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D65" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E65" s="0">
         <v>1</v>
@@ -1943,85 +1943,85 @@
         <v>0</v>
       </c>
       <c r="G65" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="H65" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I65" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>1.0126641792728071</v>
+        <v>0.55284456352177835</v>
       </c>
       <c r="B66" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C66" s="0">
-        <v>1.0126641792728071</v>
+        <v>0.55284456352177835</v>
       </c>
       <c r="D66" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E66" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F66" s="0">
-        <v>0.0066314342441169891</v>
+        <v>0.62673648077938648</v>
       </c>
       <c r="G66" s="0">
-        <v>664.15608859097176</v>
+        <v>62674.200922502168</v>
       </c>
       <c r="H66" s="0">
-        <v>663.2184774799249</v>
+        <v>62673.798293288157</v>
       </c>
       <c r="I66" s="0">
-        <v>0.13119227590627505</v>
+        <v>0.19408480920165222</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B67" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C67" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D67" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E67" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67" s="0">
         <v>0</v>
       </c>
       <c r="G67" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H67" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I67" s="0">
-        <v>0.022460084707288996</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B68" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C68" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D68" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E68" s="0">
         <v>1</v>
@@ -2030,143 +2030,143 @@
         <v>0</v>
       </c>
       <c r="G68" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H68" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I68" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B69" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C69" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D69" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E69" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F69" s="0">
-        <v>1.0490179689877337</v>
+        <v>0</v>
       </c>
       <c r="G69" s="0">
-        <v>104901.95983789672</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H69" s="0">
-        <v>104901.8719518416</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I69" s="0">
-        <v>0.013656622881806788</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B70" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C70" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D70" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E70" s="0">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F70" s="0">
-        <v>0.15638746833814857</v>
+        <v>0</v>
       </c>
       <c r="G70" s="0">
-        <v>15639.592092812529</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H70" s="0">
-        <v>15638.91801745213</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I70" s="0">
-        <v>0.096019001642299262</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B71" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C71" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D71" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E71" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F71" s="0">
-        <v>0</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G71" s="0">
-        <v>1.0176404480475485</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H71" s="0">
-        <v>0.54669399795092843</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I71" s="0">
-        <v>0.019520616744835313</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B72" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C72" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D72" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E72" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F72" s="0">
-        <v>1.0490179689877337</v>
+        <v>0</v>
       </c>
       <c r="G72" s="0">
-        <v>104901.95983789672</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H72" s="0">
-        <v>104901.8719518416</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I72" s="0">
-        <v>0.013656622881806788</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B73" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C73" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D73" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E73" s="0">
         <v>1</v>
@@ -2175,85 +2175,85 @@
         <v>0</v>
       </c>
       <c r="G73" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H73" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I73" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B74" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C74" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D74" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E74" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74" s="0">
         <v>0</v>
       </c>
       <c r="G74" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H74" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I74" s="0">
-        <v>-1.6746550961666984</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B75" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C75" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D75" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E75" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F75" s="0">
-        <v>1.0490179689877337</v>
+        <v>0</v>
       </c>
       <c r="G75" s="0">
-        <v>104901.95983789672</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H75" s="0">
-        <v>104901.8719518416</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I75" s="0">
-        <v>0.013656622881806788</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B76" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C76" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D76" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E76" s="0">
         <v>1</v>
@@ -2262,56 +2262,56 @@
         <v>0</v>
       </c>
       <c r="G76" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H76" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I76" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B77" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C77" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D77" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E77" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F77" s="0">
-        <v>0</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G77" s="0">
-        <v>1.0176404480475485</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H77" s="0">
-        <v>0.17118363727162192</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I77" s="0">
-        <v>-0.054794348830508037</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B78" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C78" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D78" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E78" s="0">
         <v>1</v>
@@ -2320,56 +2320,56 @@
         <v>0</v>
       </c>
       <c r="G78" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H78" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I78" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B79" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C79" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D79" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E79" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" s="0">
         <v>0</v>
       </c>
       <c r="G79" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H79" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I79" s="0">
-        <v>0.022460084707288996</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B80" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C80" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D80" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E80" s="0">
         <v>1</v>
@@ -2378,143 +2378,143 @@
         <v>0</v>
       </c>
       <c r="G80" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H80" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I80" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B81" s="0">
-        <v>0.17452831525054352</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C81" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D81" s="0">
-        <v>0.17452831525054352</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E81" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F81" s="0">
-        <v>1.0282823023813616</v>
+        <v>0</v>
       </c>
       <c r="G81" s="0">
-        <v>102828.39317725951</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H81" s="0">
-        <v>102828.40476645142</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I81" s="0">
-        <v>0.32692093653400478</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B82" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C82" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D82" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E82" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F82" s="0">
-        <v>0</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G82" s="0">
-        <v>0.16293912334817248</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H82" s="0">
-        <v>0.95418253913787976</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I82" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B83" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C83" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D83" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E83" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" s="0">
         <v>0</v>
       </c>
       <c r="G83" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="H83" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I83" s="0">
-        <v>-0.054794328518085043</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B84" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C84" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D84" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E84" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F84" s="0">
         <v>0</v>
       </c>
       <c r="G84" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H84" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I84" s="0">
-        <v>-0.054794328518085043</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B85" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C85" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D85" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E85" s="0">
         <v>1</v>
@@ -2523,85 +2523,85 @@
         <v>0</v>
       </c>
       <c r="G85" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H85" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I85" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B86" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C86" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D86" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E86" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F86" s="0">
-        <v>0</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G86" s="0">
-        <v>1.0176404480475485</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H86" s="0">
-        <v>0.075053068225979402</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I86" s="0">
-        <v>-1.6746557480933026</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B87" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C87" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D87" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E87" s="0">
         <v>10</v>
       </c>
       <c r="F87" s="0">
-        <v>0.29522614080496479</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G87" s="0">
-        <v>29523.459339494151</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H87" s="0">
-        <v>29522.689133564705</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I87" s="0">
-        <v>0.038446555738033253</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B88" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C88" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D88" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E88" s="0">
         <v>1</v>
@@ -2610,56 +2610,56 @@
         <v>0</v>
       </c>
       <c r="G88" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H88" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I88" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B89" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C89" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D89" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E89" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F89" s="0">
         <v>0</v>
       </c>
       <c r="G89" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H89" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I89" s="0">
-        <v>0.022460084707288996</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B90" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C90" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D90" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E90" s="0">
         <v>1</v>
@@ -2668,143 +2668,143 @@
         <v>0</v>
       </c>
       <c r="G90" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H90" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I90" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B91" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C91" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D91" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E91" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F91" s="0">
-        <v>0</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G91" s="0">
-        <v>0.16293912334817248</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H91" s="0">
-        <v>0.95418253913787976</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I91" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="B92" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C92" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="D92" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E92" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" s="0">
         <v>0</v>
       </c>
       <c r="G92" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="H92" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I92" s="0">
-        <v>-0.054794328518085043</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B93" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C93" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D93" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E93" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" s="0">
         <v>0</v>
       </c>
       <c r="G93" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H93" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I93" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-0.11186305732484077</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B94" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C94" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D94" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E94" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F94" s="0">
-        <v>0</v>
+        <v>0.17234123110066527</v>
       </c>
       <c r="G94" s="0">
-        <v>0.16293912334817248</v>
+        <v>17234.965810636259</v>
       </c>
       <c r="H94" s="0">
-        <v>0.95418253913787976</v>
+        <v>17234.273325416041</v>
       </c>
       <c r="I94" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.067407339656014767</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B95" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C95" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D95" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E95" s="0">
         <v>1</v>
@@ -2813,27 +2813,27 @@
         <v>0</v>
       </c>
       <c r="G95" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H95" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I95" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B96" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C96" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D96" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E96" s="0">
         <v>1</v>
@@ -2842,85 +2842,85 @@
         <v>0</v>
       </c>
       <c r="G96" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H96" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I96" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B97" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C97" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D97" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E97" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97" s="0">
         <v>0</v>
       </c>
       <c r="G97" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H97" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I97" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B98" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C98" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D98" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E98" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F98" s="0">
         <v>0</v>
       </c>
       <c r="G98" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H98" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I98" s="0">
-        <v>0.012384551812550125</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B99" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C99" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D99" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E99" s="0">
         <v>1</v>
@@ -2929,230 +2929,230 @@
         <v>0</v>
       </c>
       <c r="G99" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H99" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I99" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B100" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C100" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D100" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E100" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F100" s="0">
-        <v>0.15638746833814857</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G100" s="0">
-        <v>15639.592092812529</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H100" s="0">
-        <v>15638.91801745213</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I100" s="0">
-        <v>0.096019001642299262</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B101" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C101" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D101" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E101" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F101" s="0">
         <v>0</v>
       </c>
       <c r="G101" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H101" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I101" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.039258717248118122</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B102" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="C102" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D102" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="E102" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F102" s="0">
-        <v>0.66680428999081942</v>
+        <v>0</v>
       </c>
       <c r="G102" s="0">
-        <v>66680.591938205282</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H102" s="0">
-        <v>66680.97569307989</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="I102" s="0">
-        <v>0.076920936534004752</v>
+        <v>0.064069737984944988</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B103" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C103" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D103" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E103" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103" s="0">
         <v>0</v>
       </c>
       <c r="G103" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H103" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I103" s="0">
-        <v>-0.054794348830508037</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B104" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C104" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D104" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E104" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F104" s="0">
-        <v>0.084821146945449039</v>
+        <v>0.17234123110066527</v>
       </c>
       <c r="G104" s="0">
-        <v>8483.0855446757178</v>
+        <v>17234.965810636259</v>
       </c>
       <c r="H104" s="0">
-        <v>8482.1897476131289</v>
+        <v>17234.273325416041</v>
       </c>
       <c r="I104" s="0">
-        <v>0.038057004926897765</v>
+        <v>0.067407339656014767</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B105" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C105" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D105" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E105" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F105" s="0">
-        <v>0.0085769465227728547</v>
+        <v>0</v>
       </c>
       <c r="G105" s="0">
-        <v>858.74446603453885</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H105" s="0">
-        <v>858.64883481642335</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I105" s="0">
-        <v>0.054456039415182143</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B106" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C106" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D106" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E106" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F106" s="0">
         <v>0</v>
       </c>
       <c r="G106" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H106" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I106" s="0">
-        <v>-1.674653929310101</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B107" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C107" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D107" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E107" s="0">
         <v>1</v>
@@ -3161,85 +3161,85 @@
         <v>0</v>
       </c>
       <c r="G107" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="H107" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I107" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B108" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C108" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D108" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E108" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F108" s="0">
-        <v>1.0490179689877337</v>
+        <v>0</v>
       </c>
       <c r="G108" s="0">
-        <v>104901.95983789672</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H108" s="0">
-        <v>104901.8719518416</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I108" s="0">
-        <v>0.013656622881806788</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="B109" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C109" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="D109" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E109" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F109" s="0">
-        <v>0</v>
+        <v>0.25043825968007499</v>
       </c>
       <c r="G109" s="0">
-        <v>1.0176404480475485</v>
+        <v>25044.302485146647</v>
       </c>
       <c r="H109" s="0">
-        <v>0.17118363727162192</v>
+        <v>25044.487656554116</v>
       </c>
       <c r="I109" s="0">
-        <v>-0.054794348830508037</v>
+        <v>0.10580244655200492</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B110" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C110" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D110" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E110" s="0">
         <v>1</v>
@@ -3248,27 +3248,27 @@
         <v>0</v>
       </c>
       <c r="G110" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H110" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I110" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B111" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C111" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D111" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E111" s="0">
         <v>1</v>
@@ -3277,27 +3277,27 @@
         <v>0</v>
       </c>
       <c r="G111" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="H111" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I111" s="0">
-        <v>-1.674653929310101</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B112" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C112" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D112" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E112" s="0">
         <v>1</v>
@@ -3306,27 +3306,27 @@
         <v>0</v>
       </c>
       <c r="G112" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H112" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I112" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B113" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C113" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D113" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E113" s="0">
         <v>1</v>
@@ -3335,114 +3335,114 @@
         <v>0</v>
       </c>
       <c r="G113" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H113" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I113" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="B114" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C114" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="D114" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E114" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F114" s="0">
-        <v>1.0490179689877337</v>
+        <v>0.76764156184771759</v>
       </c>
       <c r="G114" s="0">
-        <v>104901.95983789672</v>
+        <v>76764.632701910901</v>
       </c>
       <c r="H114" s="0">
-        <v>104901.8719518416</v>
+        <v>76764.306400121262</v>
       </c>
       <c r="I114" s="0">
-        <v>0.013656622881806788</v>
+        <v>0.088816961840330444</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B115" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C115" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D115" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E115" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F115" s="0">
         <v>0</v>
       </c>
       <c r="G115" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H115" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I115" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.039258717248118122</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B116" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C116" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D116" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E116" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F116" s="0">
-        <v>0</v>
+        <v>0.17234123110066527</v>
       </c>
       <c r="G116" s="0">
-        <v>1.0176404480475485</v>
+        <v>17234.965810636259</v>
       </c>
       <c r="H116" s="0">
-        <v>0.075053068225979402</v>
+        <v>17234.273325416041</v>
       </c>
       <c r="I116" s="0">
-        <v>-1.6746557480933026</v>
+        <v>0.067407339656014767</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B117" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C117" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D117" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E117" s="0">
         <v>1</v>
@@ -3451,143 +3451,143 @@
         <v>0</v>
       </c>
       <c r="G117" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H117" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I117" s="0">
-        <v>-1.6746550961666984</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B118" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C118" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D118" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E118" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F118" s="0">
-        <v>0.66680428999081942</v>
+        <v>0</v>
       </c>
       <c r="G118" s="0">
-        <v>66680.591938205282</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H118" s="0">
-        <v>66680.97569307989</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I118" s="0">
-        <v>0.076920936534004752</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B119" s="0">
-        <v>0.55863492336856335</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C119" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D119" s="0">
-        <v>0.55863492336856335</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E119" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F119" s="0">
         <v>0</v>
       </c>
       <c r="G119" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H119" s="0">
-        <v>0.55863492336856335</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I119" s="0">
-        <v>-0.054794543067683235</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B120" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C120" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D120" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E120" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F120" s="0">
-        <v>1.0490179689877337</v>
+        <v>0</v>
       </c>
       <c r="G120" s="0">
-        <v>104901.95983789672</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H120" s="0">
-        <v>104901.8719518416</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I120" s="0">
-        <v>0.013656622881806788</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B121" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C121" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D121" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E121" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F121" s="0">
         <v>0</v>
       </c>
       <c r="G121" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H121" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I121" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.039258717248118122</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B122" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C122" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D122" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E122" s="0">
         <v>1</v>
@@ -3596,201 +3596,201 @@
         <v>0</v>
       </c>
       <c r="G122" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H122" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I122" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B123" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C123" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D123" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E123" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F123" s="0">
-        <v>1.0490179689877337</v>
+        <v>0</v>
       </c>
       <c r="G123" s="0">
-        <v>104901.95983789672</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H123" s="0">
-        <v>104901.8719518416</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I123" s="0">
-        <v>0.013656622881806788</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B124" s="0">
-        <v>0.55863492336856335</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C124" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D124" s="0">
-        <v>0.55863492336856335</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E124" s="0">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F124" s="0">
-        <v>0.64430399699075946</v>
+        <v>0</v>
       </c>
       <c r="G124" s="0">
-        <v>64430.562638199299</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H124" s="0">
-        <v>64430.958333999319</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I124" s="0">
-        <v>0.28844655573803324</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B125" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C125" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D125" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E125" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F125" s="0">
         <v>0</v>
       </c>
       <c r="G125" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H125" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I125" s="0">
-        <v>0.012384551812550125</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="B126" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C126" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="D126" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E126" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F126" s="0">
-        <v>1.0490179689877337</v>
+        <v>0.25043825968007499</v>
       </c>
       <c r="G126" s="0">
-        <v>104901.95983789672</v>
+        <v>25044.302485146647</v>
       </c>
       <c r="H126" s="0">
-        <v>104901.8719518416</v>
+        <v>25044.487656554116</v>
       </c>
       <c r="I126" s="0">
-        <v>0.013656622881806788</v>
+        <v>0.10580244655200492</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B127" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C127" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D127" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E127" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F127" s="0">
-        <v>0.29522614080496479</v>
+        <v>0</v>
       </c>
       <c r="G127" s="0">
-        <v>29523.459339494151</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H127" s="0">
-        <v>29522.689133564705</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I127" s="0">
-        <v>0.038446555738033253</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B128" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C128" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D128" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E128" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F128" s="0">
-        <v>0</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G128" s="0">
-        <v>0.97085013081456095</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H128" s="0">
-        <v>0.17118363727162192</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I128" s="0">
-        <v>-1.6746550961666984</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B129" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C129" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D129" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E129" s="0">
         <v>1</v>
@@ -3799,56 +3799,56 @@
         <v>0</v>
       </c>
       <c r="G129" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H129" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I129" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B130" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C130" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D130" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E130" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F130" s="0">
         <v>0</v>
       </c>
       <c r="G130" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H130" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I130" s="0">
-        <v>-0.054794328518085043</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B131" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C131" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D131" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E131" s="0">
         <v>1</v>
@@ -3857,56 +3857,56 @@
         <v>0</v>
       </c>
       <c r="G131" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H131" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I131" s="0">
-        <v>-1.6746550961666984</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B132" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C132" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D132" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E132" s="0">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F132" s="0">
-        <v>0.66680428999081942</v>
+        <v>0</v>
       </c>
       <c r="G132" s="0">
-        <v>66680.591938205282</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H132" s="0">
-        <v>66680.97569307989</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I132" s="0">
-        <v>0.076920936534004752</v>
+        <v>-0.11186305732484077</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.55284456352177835</v>
       </c>
       <c r="B133" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="C133" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.55284456352177835</v>
       </c>
       <c r="D133" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="E133" s="0">
         <v>1</v>
@@ -3915,27 +3915,27 @@
         <v>0</v>
       </c>
       <c r="G133" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.55284456352177835</v>
       </c>
       <c r="H133" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="I133" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B134" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C134" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D134" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E134" s="0">
         <v>1</v>
@@ -3944,56 +3944,56 @@
         <v>0</v>
       </c>
       <c r="G134" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H134" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I134" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B135" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C135" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D135" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E135" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F135" s="0">
-        <v>0.0085769465227728547</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G135" s="0">
-        <v>858.74446603453885</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H135" s="0">
-        <v>858.64883481642335</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I135" s="0">
-        <v>0.054456039415182143</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B136" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C136" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D136" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E136" s="0">
         <v>1</v>
@@ -4002,114 +4002,114 @@
         <v>0</v>
       </c>
       <c r="G136" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H136" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I136" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B137" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C137" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D137" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E137" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F137" s="0">
-        <v>0.0085769465227728547</v>
+        <v>0</v>
       </c>
       <c r="G137" s="0">
-        <v>858.74446603453885</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H137" s="0">
-        <v>858.64883481642335</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I137" s="0">
-        <v>0.054456039415182143</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B138" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C138" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D138" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E138" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F138" s="0">
-        <v>0.0085769465227728547</v>
+        <v>0</v>
       </c>
       <c r="G138" s="0">
-        <v>858.74446603453885</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H138" s="0">
-        <v>858.64883481642335</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I138" s="0">
-        <v>0.054456039415182143</v>
+        <v>0.039258717248118122</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B139" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C139" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D139" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E139" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F139" s="0">
-        <v>0.66680428999081942</v>
+        <v>0</v>
       </c>
       <c r="G139" s="0">
-        <v>66680.591938205282</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H139" s="0">
-        <v>66680.97569307989</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I139" s="0">
-        <v>0.076920936534004752</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B140" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C140" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D140" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E140" s="0">
         <v>1</v>
@@ -4118,27 +4118,27 @@
         <v>0</v>
       </c>
       <c r="G140" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H140" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I140" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B141" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C141" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D141" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E141" s="0">
         <v>1</v>
@@ -4147,172 +4147,172 @@
         <v>0</v>
       </c>
       <c r="G141" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H141" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I141" s="0">
-        <v>-1.674653929310101</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B142" s="0">
-        <v>0.55863492336856335</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C142" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D142" s="0">
-        <v>0.55863492336856335</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E142" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142" s="0">
         <v>0</v>
       </c>
       <c r="G142" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H142" s="0">
-        <v>0.55863492336856335</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I142" s="0">
-        <v>-0.054794543067683235</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B143" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C143" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D143" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E143" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F143" s="0">
-        <v>0.29522614080496479</v>
+        <v>0</v>
       </c>
       <c r="G143" s="0">
-        <v>29523.459339494151</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H143" s="0">
-        <v>29522.689133564705</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I143" s="0">
-        <v>0.038446555738033253</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B144" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C144" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D144" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E144" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F144" s="0">
         <v>0</v>
       </c>
       <c r="G144" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H144" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I144" s="0">
-        <v>0.019520636957074473</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B145" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C145" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D145" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E145" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F145" s="0">
         <v>0</v>
       </c>
       <c r="G145" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H145" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I145" s="0">
-        <v>0.022460084707288996</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B146" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C146" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D146" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E146" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F146" s="0">
-        <v>1.0490179689877337</v>
+        <v>0</v>
       </c>
       <c r="G146" s="0">
-        <v>104901.95983789672</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H146" s="0">
-        <v>104901.8719518416</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I146" s="0">
-        <v>0.013656622881806788</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B147" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C147" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D147" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E147" s="0">
         <v>1</v>
@@ -4321,27 +4321,27 @@
         <v>0</v>
       </c>
       <c r="G147" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H147" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I147" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B148" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C148" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D148" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E148" s="0">
         <v>1</v>
@@ -4350,27 +4350,27 @@
         <v>0</v>
       </c>
       <c r="G148" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H148" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I148" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B149" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C149" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D149" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E149" s="0">
         <v>1</v>
@@ -4379,27 +4379,27 @@
         <v>0</v>
       </c>
       <c r="G149" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H149" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I149" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B150" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C150" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D150" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E150" s="0">
         <v>1</v>
@@ -4408,56 +4408,56 @@
         <v>0</v>
       </c>
       <c r="G150" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H150" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I150" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B151" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C151" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D151" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E151" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F151" s="0">
-        <v>0</v>
+        <v>0.0099205607466687773</v>
       </c>
       <c r="G151" s="0">
-        <v>0.16293912334817248</v>
+        <v>992.82953842696452</v>
       </c>
       <c r="H151" s="0">
-        <v>0.95418253913787976</v>
+        <v>992.60599894840504</v>
       </c>
       <c r="I151" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.28925871724811814</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B152" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C152" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D152" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E152" s="0">
         <v>1</v>
@@ -4466,27 +4466,27 @@
         <v>0</v>
       </c>
       <c r="G152" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H152" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I152" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B153" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C153" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D153" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E153" s="0">
         <v>1</v>
@@ -4495,143 +4495,143 @@
         <v>0</v>
       </c>
       <c r="G153" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H153" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I153" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="B154" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C154" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="D154" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E154" s="0">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F154" s="0">
-        <v>0</v>
+        <v>0.76764156184771759</v>
       </c>
       <c r="G154" s="0">
-        <v>1.0176404480475485</v>
+        <v>76764.632701910901</v>
       </c>
       <c r="H154" s="0">
-        <v>0.54669399795092843</v>
+        <v>76764.306400121262</v>
       </c>
       <c r="I154" s="0">
-        <v>0.019520616744835313</v>
+        <v>0.088816961840330444</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B155" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C155" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D155" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E155" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F155" s="0">
-        <v>0</v>
+        <v>0.17234123110066527</v>
       </c>
       <c r="G155" s="0">
-        <v>0.97085013081456095</v>
+        <v>17234.965810636259</v>
       </c>
       <c r="H155" s="0">
-        <v>0.17118363727162192</v>
+        <v>17234.273325416041</v>
       </c>
       <c r="I155" s="0">
-        <v>-1.6746550961666984</v>
+        <v>0.067407339656014767</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B156" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C156" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D156" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E156" s="0">
         <v>10</v>
       </c>
       <c r="F156" s="0">
-        <v>0.29522614080496479</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G156" s="0">
-        <v>29523.459339494151</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H156" s="0">
-        <v>29522.689133564705</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I156" s="0">
-        <v>0.038446555738033253</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B157" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C157" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D157" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E157" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F157" s="0">
-        <v>1.0364573715034109</v>
+        <v>0.17234123110066527</v>
       </c>
       <c r="G157" s="0">
-        <v>103645.90008946443</v>
+        <v>17234.965810636259</v>
       </c>
       <c r="H157" s="0">
-        <v>103645.90833397835</v>
+        <v>17234.273325416041</v>
       </c>
       <c r="I157" s="0">
-        <v>0.064102326281556085</v>
+        <v>0.067407339656014767</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B158" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C158" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D158" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E158" s="0">
         <v>1</v>
@@ -4640,27 +4640,27 @@
         <v>0</v>
       </c>
       <c r="G158" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H158" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I158" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B159" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C159" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D159" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E159" s="0">
         <v>1</v>
@@ -4669,27 +4669,27 @@
         <v>0</v>
       </c>
       <c r="G159" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H159" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I159" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B160" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C160" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D160" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E160" s="0">
         <v>1</v>
@@ -4698,27 +4698,27 @@
         <v>0</v>
       </c>
       <c r="G160" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H160" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I160" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B161" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C161" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D161" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E161" s="0">
         <v>1</v>
@@ -4727,85 +4727,85 @@
         <v>0</v>
       </c>
       <c r="G161" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H161" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I161" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B162" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="C162" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D162" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="E162" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F162" s="0">
         <v>0</v>
       </c>
       <c r="G162" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H162" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="I162" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.064069737984944988</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B163" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C163" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D163" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E163" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F163" s="0">
         <v>0</v>
       </c>
       <c r="G163" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H163" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I163" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-0.11186305732484077</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B164" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C164" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D164" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E164" s="0">
         <v>1</v>
@@ -4814,85 +4814,85 @@
         <v>0</v>
       </c>
       <c r="G164" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H164" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I164" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B165" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C165" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D165" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E165" s="0">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F165" s="0">
-        <v>1.0490179689877337</v>
+        <v>0</v>
       </c>
       <c r="G165" s="0">
-        <v>104901.95983789672</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H165" s="0">
-        <v>104901.8719518416</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I165" s="0">
-        <v>0.013656622881806788</v>
+        <v>-0.11186305732484077</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B166" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C166" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D166" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E166" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F166" s="0">
         <v>0</v>
       </c>
       <c r="G166" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="H166" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I166" s="0">
-        <v>0.022460139876102712</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B167" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C167" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D167" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E167" s="0">
         <v>1</v>
@@ -4901,143 +4901,143 @@
         <v>0</v>
       </c>
       <c r="G167" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H167" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I167" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="B168" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C168" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="D168" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E168" s="0">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F168" s="0">
-        <v>0</v>
+        <v>0.76764156184771759</v>
       </c>
       <c r="G168" s="0">
-        <v>0.16293912334817248</v>
+        <v>76764.632701910901</v>
       </c>
       <c r="H168" s="0">
-        <v>0.95418253913787976</v>
+        <v>76764.306400121262</v>
       </c>
       <c r="I168" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.088816961840330444</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B169" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C169" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D169" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E169" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F169" s="0">
-        <v>0.084821146945449039</v>
+        <v>0</v>
       </c>
       <c r="G169" s="0">
-        <v>8483.0855446757178</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H169" s="0">
-        <v>8482.1897476131289</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I169" s="0">
-        <v>0.038057004926897765</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B170" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C170" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D170" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E170" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F170" s="0">
         <v>0</v>
       </c>
       <c r="G170" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H170" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I170" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-0.11186305732484077</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B171" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C171" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D171" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E171" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F171" s="0">
-        <v>0.0085769465227728547</v>
+        <v>0</v>
       </c>
       <c r="G171" s="0">
-        <v>858.74446603453885</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H171" s="0">
-        <v>858.64883481642335</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I171" s="0">
-        <v>0.054456039415182143</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B172" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C172" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D172" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E172" s="0">
         <v>1</v>
@@ -5046,114 +5046,114 @@
         <v>0</v>
       </c>
       <c r="G172" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H172" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I172" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B173" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="C173" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D173" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="E173" s="0">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F173" s="0">
-        <v>1.0364573715034109</v>
+        <v>0</v>
       </c>
       <c r="G173" s="0">
-        <v>103645.90008946443</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H173" s="0">
-        <v>103645.90833397835</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="I173" s="0">
-        <v>0.064102326281556085</v>
+        <v>0.064069737984944988</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B174" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C174" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D174" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E174" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F174" s="0">
         <v>0</v>
       </c>
       <c r="G174" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="H174" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I174" s="0">
-        <v>-0.054794328518085043</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B175" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C175" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D175" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E175" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F175" s="0">
-        <v>0</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G175" s="0">
-        <v>1.0176404480475485</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H175" s="0">
-        <v>0.075053068225979402</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I175" s="0">
-        <v>-1.6746557480933026</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B176" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C176" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D176" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E176" s="0">
         <v>1</v>
@@ -5162,27 +5162,27 @@
         <v>0</v>
       </c>
       <c r="G176" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H176" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I176" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B177" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C177" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D177" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E177" s="0">
         <v>1</v>
@@ -5191,114 +5191,114 @@
         <v>0</v>
       </c>
       <c r="G177" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H177" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I177" s="0">
-        <v>-1.6746550961666984</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B178" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C178" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D178" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E178" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F178" s="0">
         <v>0</v>
       </c>
       <c r="G178" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H178" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I178" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B179" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C179" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D179" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E179" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F179" s="0">
-        <v>0</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G179" s="0">
-        <v>0.16293912334817248</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H179" s="0">
-        <v>0.95418253913787976</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I179" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B180" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C180" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D180" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E180" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F180" s="0">
-        <v>1.0490179689877337</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G180" s="0">
-        <v>104901.95983789672</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H180" s="0">
-        <v>104901.8719518416</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I180" s="0">
-        <v>0.013656622881806788</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B181" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C181" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D181" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E181" s="0">
         <v>1</v>
@@ -5307,56 +5307,56 @@
         <v>0</v>
       </c>
       <c r="G181" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H181" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I181" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B182" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C182" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D182" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E182" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F182" s="0">
-        <v>0</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G182" s="0">
-        <v>0.97085013081456095</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H182" s="0">
-        <v>0.95418253913787976</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I182" s="0">
-        <v>0.022460084707288996</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B183" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C183" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D183" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E183" s="0">
         <v>1</v>
@@ -5365,56 +5365,56 @@
         <v>0</v>
       </c>
       <c r="G183" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H183" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I183" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B184" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C184" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D184" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E184" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F184" s="0">
         <v>0</v>
       </c>
       <c r="G184" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H184" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I184" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B185" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C185" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D185" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E185" s="0">
         <v>1</v>
@@ -5423,27 +5423,27 @@
         <v>0</v>
       </c>
       <c r="G185" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H185" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I185" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B186" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C186" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D186" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E186" s="0">
         <v>1</v>
@@ -5452,27 +5452,27 @@
         <v>0</v>
       </c>
       <c r="G186" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H186" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I186" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="B187" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C187" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="D187" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E187" s="0">
         <v>1</v>
@@ -5481,27 +5481,27 @@
         <v>0</v>
       </c>
       <c r="G187" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="H187" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I187" s="0">
-        <v>-1.674653929310101</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B188" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C188" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D188" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E188" s="0">
         <v>1</v>
@@ -5510,56 +5510,56 @@
         <v>0</v>
       </c>
       <c r="G188" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H188" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I188" s="0">
-        <v>-1.674653929310101</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B189" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C189" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D189" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E189" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F189" s="0">
         <v>0</v>
       </c>
       <c r="G189" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H189" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I189" s="0">
-        <v>0.012384551812550125</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B190" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C190" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D190" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E190" s="0">
         <v>1</v>
@@ -5568,143 +5568,143 @@
         <v>0</v>
       </c>
       <c r="G190" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H190" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I190" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B191" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C191" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D191" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E191" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F191" s="0">
         <v>0</v>
       </c>
       <c r="G191" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H191" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I191" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.039258717248118122</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B192" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C192" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D192" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E192" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F192" s="0">
         <v>0</v>
       </c>
       <c r="G192" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H192" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I192" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-0.11186305732484077</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B193" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C193" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D193" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E193" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F193" s="0">
         <v>0</v>
       </c>
       <c r="G193" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H193" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I193" s="0">
-        <v>0.022460139876102712</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="B194" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C194" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="D194" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E194" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F194" s="0">
-        <v>1.0490179689877337</v>
+        <v>0</v>
       </c>
       <c r="G194" s="0">
-        <v>104901.95983789672</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="H194" s="0">
-        <v>104901.8719518416</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I194" s="0">
-        <v>0.013656622881806788</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B195" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C195" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D195" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E195" s="0">
         <v>1</v>
@@ -5713,230 +5713,230 @@
         <v>0</v>
       </c>
       <c r="G195" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H195" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I195" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B196" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C196" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D196" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E196" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F196" s="0">
-        <v>1.0490179689877337</v>
+        <v>0</v>
       </c>
       <c r="G196" s="0">
-        <v>104901.95983789672</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H196" s="0">
-        <v>104901.8719518416</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I196" s="0">
-        <v>0.013656622881806788</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B197" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C197" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D197" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E197" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F197" s="0">
-        <v>0</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G197" s="0">
-        <v>1.0176404480475485</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H197" s="0">
-        <v>0.95418253913787976</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I197" s="0">
-        <v>0.012384551812550125</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B198" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C198" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D198" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E198" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F198" s="0">
-        <v>1.0364573715034109</v>
+        <v>0</v>
       </c>
       <c r="G198" s="0">
-        <v>103645.90008946443</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H198" s="0">
-        <v>103645.90833397835</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I198" s="0">
-        <v>0.064102326281556085</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B199" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C199" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D199" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E199" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F199" s="0">
-        <v>1.0490179689877337</v>
+        <v>0</v>
       </c>
       <c r="G199" s="0">
-        <v>104901.95983789672</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="H199" s="0">
-        <v>104901.8719518416</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I199" s="0">
-        <v>0.013656622881806788</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B200" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C200" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D200" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E200" s="0">
         <v>10</v>
       </c>
       <c r="F200" s="0">
-        <v>0.29522614080496479</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G200" s="0">
-        <v>29523.459339494151</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H200" s="0">
-        <v>29522.689133564705</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I200" s="0">
-        <v>0.038446555738033253</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B201" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C201" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D201" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E201" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F201" s="0">
         <v>0</v>
       </c>
       <c r="G201" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H201" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I201" s="0">
-        <v>-0.054794348830508037</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B202" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C202" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D202" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E202" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F202" s="0">
-        <v>0.084821146945449039</v>
+        <v>0</v>
       </c>
       <c r="G202" s="0">
-        <v>8483.0855446757178</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H202" s="0">
-        <v>8482.1897476131289</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I202" s="0">
-        <v>0.038057004926897765</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B203" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C203" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D203" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E203" s="0">
         <v>1</v>
@@ -5945,27 +5945,27 @@
         <v>0</v>
       </c>
       <c r="G203" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H203" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I203" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B204" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C204" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D204" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E204" s="0">
         <v>1</v>
@@ -5974,85 +5974,85 @@
         <v>0</v>
       </c>
       <c r="G204" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H204" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I204" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B205" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C205" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D205" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E205" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F205" s="0">
         <v>0</v>
       </c>
       <c r="G205" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H205" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I205" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-0.11186305732484077</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B206" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C206" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D206" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E206" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F206" s="0">
         <v>0</v>
       </c>
       <c r="G206" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H206" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I206" s="0">
-        <v>0.012384551812550125</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B207" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C207" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D207" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E207" s="0">
         <v>1</v>
@@ -6061,27 +6061,27 @@
         <v>0</v>
       </c>
       <c r="G207" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H207" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I207" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="B208" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C208" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="D208" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E208" s="0">
         <v>1</v>
@@ -6090,143 +6090,143 @@
         <v>0</v>
       </c>
       <c r="G208" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="H208" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I208" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B209" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C209" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D209" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E209" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F209" s="0">
         <v>0</v>
       </c>
       <c r="G209" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H209" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I209" s="0">
-        <v>0.012384551812550125</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B210" s="0">
-        <v>0.54669399795092843</v>
+        <v>2.0195206003812407</v>
       </c>
       <c r="C210" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D210" s="0">
-        <v>0.54669399795092843</v>
+        <v>2.0195206003812407</v>
       </c>
       <c r="E210" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F210" s="0">
-        <v>0</v>
+        <v>2.0183332049349199</v>
       </c>
       <c r="G210" s="0">
-        <v>1.0498137572533459</v>
+        <v>201834.27808539526</v>
       </c>
       <c r="H210" s="0">
-        <v>0.54669399795092843</v>
+        <v>201835.34001409236</v>
       </c>
       <c r="I210" s="0">
-        <v>0.022460139876102712</v>
+        <v>0.33881696184033044</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B211" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C211" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D211" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E211" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F211" s="0">
-        <v>0</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G211" s="0">
-        <v>1.0498137572533459</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H211" s="0">
-        <v>0.075053068225979402</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I211" s="0">
-        <v>-0.054794328518085043</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B212" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C212" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D212" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E212" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F212" s="0">
-        <v>1.0490179689877337</v>
+        <v>0</v>
       </c>
       <c r="G212" s="0">
-        <v>104901.95983789672</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H212" s="0">
-        <v>104901.8719518416</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I212" s="0">
-        <v>0.013656622881806788</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B213" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C213" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D213" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E213" s="0">
         <v>1</v>
@@ -6235,56 +6235,56 @@
         <v>0</v>
       </c>
       <c r="G213" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H213" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I213" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B214" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C214" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D214" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E214" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F214" s="0">
         <v>0</v>
       </c>
       <c r="G214" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="H214" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I214" s="0">
-        <v>-0.054794328518085043</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B215" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C215" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D215" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E215" s="0">
         <v>1</v>
@@ -6293,143 +6293,143 @@
         <v>0</v>
       </c>
       <c r="G215" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H215" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I215" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B216" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C216" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D216" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E216" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F216" s="0">
-        <v>0.66680428999081942</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G216" s="0">
-        <v>66680.591938205282</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H216" s="0">
-        <v>66680.97569307989</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I216" s="0">
-        <v>0.076920936534004752</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B217" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C217" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D217" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E217" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F217" s="0">
         <v>0</v>
       </c>
       <c r="G217" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="H217" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I217" s="0">
-        <v>0.019520616744835313</v>
+        <v>-0.11186305732484077</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B218" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C218" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D218" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E218" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F218" s="0">
         <v>0</v>
       </c>
       <c r="G218" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H218" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I218" s="0">
-        <v>0.022460084707288996</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B219" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C219" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D219" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E219" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F219" s="0">
-        <v>1.0490179689877337</v>
+        <v>0</v>
       </c>
       <c r="G219" s="0">
-        <v>104901.95983789672</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H219" s="0">
-        <v>104901.8719518416</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I219" s="0">
-        <v>0.013656622881806788</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="B220" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C220" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="D220" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E220" s="0">
         <v>1</v>
@@ -6438,56 +6438,56 @@
         <v>0</v>
       </c>
       <c r="G220" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.84270056973156315</v>
       </c>
       <c r="H220" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I220" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B221" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C221" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D221" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E221" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F221" s="0">
         <v>0</v>
       </c>
       <c r="G221" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H221" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I221" s="0">
-        <v>-0.054794348830508037</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B222" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C222" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D222" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E222" s="0">
         <v>1</v>
@@ -6496,27 +6496,27 @@
         <v>0</v>
       </c>
       <c r="G222" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H222" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I222" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B223" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C223" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D223" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E223" s="0">
         <v>1</v>
@@ -6525,114 +6525,114 @@
         <v>0</v>
       </c>
       <c r="G223" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H223" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I223" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B224" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C224" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D224" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E224" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F224" s="0">
-        <v>1.0364573715034109</v>
+        <v>0</v>
       </c>
       <c r="G224" s="0">
-        <v>103645.90008946443</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H224" s="0">
-        <v>103645.90833397835</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I224" s="0">
-        <v>0.064102326281556085</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="B225" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C225" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="D225" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E225" s="0">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F225" s="0">
-        <v>0</v>
+        <v>0.51206381527984268</v>
       </c>
       <c r="G225" s="0">
-        <v>1.0176404480475485</v>
+        <v>51206.858045123416</v>
       </c>
       <c r="H225" s="0">
-        <v>0.075053068225979402</v>
+        <v>51206.931452265795</v>
       </c>
       <c r="I225" s="0">
-        <v>-1.6746557480933026</v>
+        <v>0.13816961840330444</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B226" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C226" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D226" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E226" s="0">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F226" s="0">
-        <v>1.0490179689877337</v>
+        <v>0</v>
       </c>
       <c r="G226" s="0">
-        <v>104901.95983789672</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H226" s="0">
-        <v>104901.8719518416</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I226" s="0">
-        <v>0.013656622881806788</v>
+        <v>0.039258717248118122</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B227" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C227" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D227" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E227" s="0">
         <v>1</v>
@@ -6641,317 +6641,317 @@
         <v>0</v>
       </c>
       <c r="G227" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H227" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I227" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="B228" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C228" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="D228" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E228" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F228" s="0">
-        <v>0</v>
+        <v>0.51206381527984268</v>
       </c>
       <c r="G228" s="0">
-        <v>1.0176404480475485</v>
+        <v>51206.858045123416</v>
       </c>
       <c r="H228" s="0">
-        <v>0.95418253913787976</v>
+        <v>51206.931452265795</v>
       </c>
       <c r="I228" s="0">
-        <v>0.012384551812550125</v>
+        <v>0.13816961840330444</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B229" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C229" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D229" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E229" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F229" s="0">
-        <v>0.66680428999081942</v>
+        <v>0</v>
       </c>
       <c r="G229" s="0">
-        <v>66680.591938205282</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H229" s="0">
-        <v>66680.97569307989</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I229" s="0">
-        <v>0.076920936534004752</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B230" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C230" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D230" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E230" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F230" s="0">
         <v>0</v>
       </c>
       <c r="G230" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H230" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I230" s="0">
-        <v>0.022460084707288996</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B231" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C231" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D231" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E231" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F231" s="0">
         <v>0</v>
       </c>
       <c r="G231" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H231" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I231" s="0">
-        <v>-0.054794328518085043</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.55284456352177835</v>
       </c>
       <c r="B232" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="C232" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.55284456352177835</v>
       </c>
       <c r="D232" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="E232" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F232" s="0">
         <v>0</v>
       </c>
       <c r="G232" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.55284456352177835</v>
       </c>
       <c r="H232" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.82738237321781405</v>
       </c>
       <c r="I232" s="0">
-        <v>-0.054794328518085043</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B233" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C233" s="0">
-        <v>0.84525899767159052</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D233" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E233" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F233" s="0">
-        <v>0</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G233" s="0">
-        <v>0.84525899767159052</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H233" s="0">
-        <v>0.54669399795092843</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I233" s="0">
-        <v>-1.674653929310101</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B234" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C234" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D234" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E234" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F234" s="0">
         <v>0</v>
       </c>
       <c r="G234" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H234" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I234" s="0">
-        <v>-0.054794328518085043</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="B235" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C235" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="D235" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E235" s="0">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F235" s="0">
-        <v>0</v>
+        <v>0.76764156184771759</v>
       </c>
       <c r="G235" s="0">
-        <v>0.16293912334817248</v>
+        <v>76764.632701910901</v>
       </c>
       <c r="H235" s="0">
-        <v>0.95418253913787976</v>
+        <v>76764.306400121262</v>
       </c>
       <c r="I235" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.088816961840330444</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B236" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C236" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D236" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E236" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F236" s="0">
-        <v>0.084821146945449039</v>
+        <v>0</v>
       </c>
       <c r="G236" s="0">
-        <v>8483.0855446757178</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H236" s="0">
-        <v>8482.1897476131289</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I236" s="0">
-        <v>0.038057004926897765</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B237" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C237" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D237" s="0">
-        <v>0.54669399795092843</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E237" s="0">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F237" s="0">
-        <v>0.66680428999081942</v>
+        <v>0</v>
       </c>
       <c r="G237" s="0">
-        <v>66680.591938205282</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H237" s="0">
-        <v>66680.97569307989</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I237" s="0">
-        <v>0.076920936534004752</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B238" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C238" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D238" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E238" s="0">
         <v>1</v>
@@ -6960,56 +6960,56 @@
         <v>0</v>
       </c>
       <c r="G238" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H238" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I238" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B239" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C239" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D239" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E239" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F239" s="0">
-        <v>0</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G239" s="0">
-        <v>0.16293912334817248</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H239" s="0">
-        <v>0.95418253913787976</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I239" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B240" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C240" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D240" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E240" s="0">
         <v>1</v>
@@ -7018,27 +7018,27 @@
         <v>0</v>
       </c>
       <c r="G240" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H240" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I240" s="0">
-        <v>-1.6746509168411441</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B241" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="C241" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D241" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="E241" s="0">
         <v>2</v>
@@ -7047,56 +7047,56 @@
         <v>0</v>
       </c>
       <c r="G241" s="0">
-        <v>1.0498137572533459</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H241" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.54992428152733785</v>
       </c>
       <c r="I241" s="0">
-        <v>-0.054794328518085043</v>
+        <v>-0.11186305732484077</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>0.16293912334817248</v>
+        <v>2.7575623046197841</v>
       </c>
       <c r="B242" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C242" s="0">
-        <v>0.16293912334817248</v>
+        <v>2.7575623046197841</v>
       </c>
       <c r="D242" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E242" s="0">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F242" s="0">
-        <v>0</v>
+        <v>4.6227307453469413</v>
       </c>
       <c r="G242" s="0">
-        <v>0.16293912334817248</v>
+        <v>462275.83209699875</v>
       </c>
       <c r="H242" s="0">
-        <v>0.95418253913787976</v>
+        <v>462273.73622324073</v>
       </c>
       <c r="I242" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.5888169618403305</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="B243" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="C243" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="D243" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="E243" s="0">
         <v>1</v>
@@ -7105,56 +7105,56 @@
         <v>0</v>
       </c>
       <c r="G243" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.47651713914722538</v>
       </c>
       <c r="H243" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.88942211115567926</v>
       </c>
       <c r="I243" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.55284456352177835</v>
       </c>
       <c r="B244" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C244" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.55284456352177835</v>
       </c>
       <c r="D244" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E244" s="0">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F244" s="0">
-        <v>0</v>
+        <v>0.62673648077938648</v>
       </c>
       <c r="G244" s="0">
-        <v>1.0176404480475485</v>
+        <v>62674.200922502168</v>
       </c>
       <c r="H244" s="0">
-        <v>0.075053068225979402</v>
+        <v>62673.798293288157</v>
       </c>
       <c r="I244" s="0">
-        <v>-1.6746557480933026</v>
+        <v>0.19408480920165222</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B245" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C245" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D245" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E245" s="0">
         <v>1</v>
@@ -7163,158 +7163,158 @@
         <v>0</v>
       </c>
       <c r="G245" s="0">
-        <v>1.0176404480475485</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H245" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I245" s="0">
-        <v>-1.6746557480933026</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B246" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C246" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D246" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E246" s="0">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F246" s="0">
-        <v>1.0490179689877337</v>
+        <v>0</v>
       </c>
       <c r="G246" s="0">
-        <v>104901.95983789672</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H246" s="0">
-        <v>104901.8719518416</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I246" s="0">
-        <v>0.013656622881806788</v>
+        <v>0.0062789519397799662</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B247" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C247" s="0">
-        <v>0.97085013081456095</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D247" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E247" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F247" s="0">
-        <v>0.084821146945449039</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G247" s="0">
-        <v>8483.0855446757178</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H247" s="0">
-        <v>8482.1897476131289</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I247" s="0">
-        <v>0.038057004926897765</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B248" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C248" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D248" s="0">
-        <v>0.95418253913787976</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E248" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F248" s="0">
-        <v>0</v>
+        <v>0.27945127882821919</v>
       </c>
       <c r="G248" s="0">
-        <v>0.16293912334817248</v>
+        <v>27945.901346582006</v>
       </c>
       <c r="H248" s="0">
-        <v>0.95418253913787976</v>
+        <v>27945.278098171431</v>
       </c>
       <c r="I248" s="0">
-        <v>-1.6746509168411441</v>
+        <v>0.026339236806608907</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="B249" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="C249" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="D249" s="0">
-        <v>0.075053068225979402</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="E249" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F249" s="0">
-        <v>1.0490179689877337</v>
+        <v>0</v>
       </c>
       <c r="G249" s="0">
-        <v>104901.95983789672</v>
+        <v>0.95759190328496135</v>
       </c>
       <c r="H249" s="0">
-        <v>104901.8719518416</v>
+        <v>0.15021534951171997</v>
       </c>
       <c r="I249" s="0">
-        <v>0.013656622881806788</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="B250" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="C250" s="0">
-        <v>0.16293912334817248</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="D250" s="0">
-        <v>0.17118363727162192</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="E250" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F250" s="0">
-        <v>1.0364573715034109</v>
+        <v>0</v>
       </c>
       <c r="G250" s="0">
-        <v>103645.90008946443</v>
+        <v>0.77346376008677376</v>
       </c>
       <c r="H250" s="0">
-        <v>103645.90833397835</v>
+        <v>0.66168854661586507</v>
       </c>
       <c r="I250" s="0">
-        <v>0.064102326281556085</v>
+        <v>-1.5923566878980893</v>
       </c>
     </row>
     <row r="251">
